--- a/plan_de_calidad.xlsx
+++ b/plan_de_calidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="15120" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Unidad</t>
   </si>
   <si>
-    <t>manual de usuario</t>
-  </si>
-  <si>
-    <t>faltas de ortografía</t>
-  </si>
-  <si>
     <t>Documento de requerimientos</t>
   </si>
   <si>
@@ -66,18 +60,9 @@
     <t>Faltas de ortografía</t>
   </si>
   <si>
-    <t>Que sea completo</t>
-  </si>
-  <si>
     <t>Que no se ambiguo</t>
   </si>
   <si>
-    <t>Que sea claro</t>
-  </si>
-  <si>
-    <t>Prototipo de mockups</t>
-  </si>
-  <si>
     <t>Vales de salida o préstamo</t>
   </si>
   <si>
@@ -99,12 +84,6 @@
     <t>palabra/pagina</t>
   </si>
   <si>
-    <t>palabra/página</t>
-  </si>
-  <si>
-    <t>relacion/entidad</t>
-  </si>
-  <si>
     <t>atributo/tabla</t>
   </si>
   <si>
@@ -129,9 +108,6 @@
     <t>error de permiso/usuario</t>
   </si>
   <si>
-    <t>Diagrama de casos de uso del modulo de usuarios</t>
-  </si>
-  <si>
     <t>Error en la asignación de autores en las actividades</t>
   </si>
   <si>
@@ -163,13 +139,28 @@
   </si>
   <si>
     <t>Identificar correctamente las entidades del documentos de requerimientos</t>
+  </si>
+  <si>
+    <t>Manual de usuario</t>
+  </si>
+  <si>
+    <t>errores/página</t>
+  </si>
+  <si>
+    <t>errores/base de datos</t>
+  </si>
+  <si>
+    <t>Prototipo de Mockups</t>
+  </si>
+  <si>
+    <t>Diagrama de casos de uso del módulo de usuarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,19 +168,147 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -198,14 +317,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -216,6 +397,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -508,385 +692,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
     <col min="3" max="3" width="74" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="14">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="E11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>6</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10">
+        <v>15</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14">
+        <v>5</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14">
+        <v>15</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14">
+        <v>5</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>11</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="14">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+      <c r="E21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>13</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="E23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="13">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
